--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3069902.733794237</v>
+        <v>3065597.017418167</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>133.7005044786328</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>266.6910260201689</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>193.5756411391284</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.467412544855456</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>183.4914695615727</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>70.32145496662655</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>115.2599530853079</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>28.63965548614061</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>149.6757205840736</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.73433514019965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U16" t="n">
-        <v>20.38427178197973</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>40.96105405076429</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>72.01539947949706</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>13.94435783112456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -3000,16 +3000,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>45.17596778975034</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>117.4665281367401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>71.60395572454149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>2.60701007315258</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2343.463409365404</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2012.400522021833</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1659.631866751719</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X2" t="n">
-        <v>1659.631866751719</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1269.492534775907</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,13 +4409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>458.7441094385871</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.3850306156796</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="C5" t="n">
-        <v>885.3850306156796</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="D5" t="n">
-        <v>885.3850306156796</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>719.9485965383353</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y5" t="n">
-        <v>1271.984870679801</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>627.680292366494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>627.680292366494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>627.680292366494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>627.680292366494</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1186.952328438143</v>
+        <v>1523.427595107793</v>
       </c>
       <c r="C8" t="n">
-        <v>817.9898114977311</v>
+        <v>1154.465078167382</v>
       </c>
       <c r="D8" t="n">
-        <v>459.7241128909807</v>
+        <v>796.199379560631</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>796.199379560631</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>385.2134747710234</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,16 +4804,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>617.9730006750465</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2580.724895982558</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2249.662008638987</v>
       </c>
       <c r="W8" t="n">
-        <v>2337.157258739156</v>
+        <v>1896.893353368873</v>
       </c>
       <c r="X8" t="n">
-        <v>1963.691500478076</v>
+        <v>1523.427595107793</v>
       </c>
       <c r="Y8" t="n">
-        <v>1573.552168502265</v>
+        <v>1523.427595107793</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
         <v>1233.514064314702</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.8312965551136</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8951136272067</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8951136272067</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8951136272067</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>223.0051661292963</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>223.0051661292963</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>538.8312965551136</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>538.8312965551136</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>538.8312965551136</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,52 +5038,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5175,73 +5175,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
         <v>1280.315625093766</v>
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.955258982919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>889.0190760550122</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>738.9024366426764</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>590.9893430602833</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>444.0993955623729</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>276.9032962772529</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>135.191465119451</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854706</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.396302956689</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.603723813159</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>4435.461999481584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1021.293348608258</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>852.3571656803514</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1202.941813438498</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6013,16 +6013,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>3374.069054499763</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>3374.069054499763</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,28 +6463,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6648,22 +6648,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V31" t="n">
-        <v>1569.732795130727</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
         <v>1280.315625093766</v>
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,22 +6928,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,31 +7429,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,10 +7733,10 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1344.266747951538</v>
@@ -7788,19 +7788,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>43.95636118853432</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>40.30478226780124</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>76.60007353871529</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>211.7652975579126</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>172.2294825375379</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>180.5336875992865</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>39.70888054695408</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.9159882634384</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="I2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
@@ -26352,7 +26352,7 @@
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365058</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,25 +26383,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080582</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682695</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682703</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
@@ -26441,13 +26441,13 @@
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184863.8683563462</v>
+        <v>-184863.8683563461</v>
       </c>
       <c r="C6" t="n">
-        <v>405104.0108581983</v>
+        <v>405104.0108581985</v>
       </c>
       <c r="D6" t="n">
-        <v>249300.2047644026</v>
+        <v>249300.2047644029</v>
       </c>
       <c r="E6" t="n">
-        <v>-191778.1480348906</v>
+        <v>-192125.5272892476</v>
       </c>
       <c r="F6" t="n">
-        <v>579274.5433459156</v>
+        <v>578927.1640915587</v>
       </c>
       <c r="G6" t="n">
-        <v>579274.5433459161</v>
+        <v>578927.1640915589</v>
       </c>
       <c r="H6" t="n">
-        <v>579274.5433459156</v>
+        <v>578927.1640915591</v>
       </c>
       <c r="I6" t="n">
-        <v>579274.5433459159</v>
+        <v>578927.1640915587</v>
       </c>
       <c r="J6" t="n">
-        <v>402851.3241533228</v>
+        <v>402503.9448989661</v>
       </c>
       <c r="K6" t="n">
-        <v>579274.5433459156</v>
+        <v>578927.1640915588</v>
       </c>
       <c r="L6" t="n">
-        <v>579274.5433459159</v>
+        <v>578927.1640915589</v>
       </c>
       <c r="M6" t="n">
-        <v>455066.0326378573</v>
+        <v>454718.6533835006</v>
       </c>
       <c r="N6" t="n">
-        <v>579274.5433459156</v>
+        <v>578927.1640915588</v>
       </c>
       <c r="O6" t="n">
-        <v>579274.5433459159</v>
+        <v>578927.1640915589</v>
       </c>
       <c r="P6" t="n">
-        <v>579274.5433459162</v>
+        <v>578927.164091559</v>
       </c>
     </row>
   </sheetData>
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,25 +26977,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117.5236630296565</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.5380257591774</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27593,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>19.59084822180887</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>25.00901221296644</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>379.4629575274063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>230.2927004592223</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>76.34373701353131</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27909,19 +27909,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>135.8948331369928</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>320.6013132312724</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>3.036376085158992</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201444</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>360.9226811202607</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>202.2352659288684</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164387</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33265,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>441.0292693655512</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,7 +33508,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>210.3948924365565</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33520,7 +33520,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593851</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34453,13 +34453,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>232.5416266687441</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,7 +35260,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>220.9409070342392</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,19 +36445,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>68.26085851453816</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365645</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>302.474889585677</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36928,10 +36928,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,7 +37156,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>68.26085851453816</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795109</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3065597.017418167</v>
+        <v>3067357.547720952</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8662070.799216904</v>
+        <v>8662070.799216902</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>323.4871129790306</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.7029429582356</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>183.4914695615727</v>
+        <v>255.7392110914377</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>46.80807769362092</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>48.02830142190957</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>115.2599530853079</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>132.7429138866483</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>135.5795121770518</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>45.17596778975034</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881282</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>55.52079624060384</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>60.25690685266593</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>861.3583373640504</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.6523186161</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4418,16 +4418,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1130.934501327943</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="C5" t="n">
-        <v>1130.934501327943</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="D5" t="n">
-        <v>1130.934501327943</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="E5" t="n">
-        <v>1130.934501327943</v>
+        <v>799.8716139843721</v>
       </c>
       <c r="F5" t="n">
-        <v>719.9485965383353</v>
+        <v>792.9261132351686</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4603,16 +4603,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.934501327943</v>
+        <v>799.8716139843721</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>680.8480976472212</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>530.7314582348854</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>382.8183646524923</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1523.427595107793</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="C8" t="n">
-        <v>1154.465078167382</v>
+        <v>646.1826707127364</v>
       </c>
       <c r="D8" t="n">
-        <v>796.199379560631</v>
+        <v>646.1826707127364</v>
       </c>
       <c r="E8" t="n">
-        <v>796.199379560631</v>
+        <v>646.1826707127364</v>
       </c>
       <c r="F8" t="n">
-        <v>385.2134747710234</v>
+        <v>235.1967659231288</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>222.1493881999603</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>617.9730006750465</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771031</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1579.896877817736</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2127.058082584813</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2580.724895982558</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2249.662008638987</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1896.893353368873</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>1523.427595107793</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="Y8" t="n">
-        <v>1523.427595107793</v>
+        <v>1015.145187653148</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.3528679052845</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.4397743228914</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.5498268249811</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5004,10 +5004,10 @@
         <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>919.7939118790543</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>699.0013327355242</v>
       </c>
     </row>
     <row r="11">
@@ -5020,37 +5020,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,31 +5059,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5193,10 +5193,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,13 +5223,13 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
         <v>2273.199413378161</v>
@@ -5260,22 +5260,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111716</v>
@@ -5302,25 +5302,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
         <v>352.5519571452613</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>230.7656652470141</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,16 +5837,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6141,10 +6141,10 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718132</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718132</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,70 +6597,70 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2334.285089135946</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>2045.209862480144</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1790.525374274257</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
         <v>1501.108204237296</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L36" t="n">
-        <v>776.17510664033</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266882</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,13 +7189,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7259,16 +7259,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718133</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7736,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>317.6151975578602</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>43.95636118853432</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>216.3441640494769</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-6.250036804665917e-13</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>75.37549921168723</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>29.94462611521701</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>172.2294825375379</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>39.70888054695408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808066</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080582</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,28 +26423,28 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682695</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682703</v>
-      </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682721</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
@@ -26456,7 +26456,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184863.8683563461</v>
+        <v>-184863.8683563464</v>
       </c>
       <c r="C6" t="n">
-        <v>405104.0108581985</v>
+        <v>405104.0108581983</v>
       </c>
       <c r="D6" t="n">
-        <v>249300.2047644029</v>
+        <v>249300.2047644025</v>
       </c>
       <c r="E6" t="n">
-        <v>-192125.5272892476</v>
+        <v>-191812.8859603265</v>
       </c>
       <c r="F6" t="n">
-        <v>578927.1640915587</v>
+        <v>579239.80542048</v>
       </c>
       <c r="G6" t="n">
-        <v>578927.1640915589</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="H6" t="n">
-        <v>578927.1640915591</v>
+        <v>579239.8054204804</v>
       </c>
       <c r="I6" t="n">
-        <v>578927.1640915587</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="J6" t="n">
-        <v>402503.9448989661</v>
+        <v>402816.5862278871</v>
       </c>
       <c r="K6" t="n">
-        <v>578927.1640915588</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="L6" t="n">
-        <v>578927.1640915589</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="M6" t="n">
-        <v>454718.6533835006</v>
+        <v>455031.2947124215</v>
       </c>
       <c r="N6" t="n">
-        <v>578927.1640915588</v>
+        <v>579239.8054204803</v>
       </c>
       <c r="O6" t="n">
-        <v>578927.1640915589</v>
+        <v>579239.8054204803</v>
       </c>
       <c r="P6" t="n">
-        <v>578927.164091559</v>
+        <v>579239.8054204801</v>
       </c>
     </row>
   </sheetData>
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036089</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>90.29705704176439</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.5380257591774</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>230.2927004592223</v>
+        <v>158.0449589293573</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>120.4387434050069</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>267.012582653306</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>135.8948331369928</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.96674150238889</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31864,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32074,16 +32074,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>246.9596973201444</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L27" t="n">
-        <v>513.0745614164387</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593851</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33979,10 +33979,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>514.8598010172138</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>391.9250669264629</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>232.5416266687441</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>328.1970178368775</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>108.4053175402702</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35901,7 +35901,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L27" t="n">
-        <v>374.5201816365645</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795109</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>376.3054212373396</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
